--- a/CompareDifferentPapers.xlsx
+++ b/CompareDifferentPapers.xlsx
@@ -1158,10 +1158,10 @@
   <dimension ref="A2:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
